--- a/_02_hot-place-in-jeju/files/3_locations_inform.xlsx
+++ b/_02_hot-place-in-jeju/files/3_locations_inform.xlsx
@@ -337,6 +337,9 @@
     <t>목수금토일</t>
   </si>
   <si>
+    <t>못생김</t>
+  </si>
+  <si>
     <t>몽땅카페</t>
   </si>
   <si>
@@ -502,6 +505,9 @@
     <t>삼보식당</t>
   </si>
   <si>
+    <t>새별오름</t>
+  </si>
+  <si>
     <t>새연교횟집</t>
   </si>
   <si>
@@ -577,9 +583,6 @@
     <t>쇠소깍오메기식당</t>
   </si>
   <si>
-    <t>수망일기</t>
-  </si>
-  <si>
     <t>수목원테마파크</t>
   </si>
   <si>
@@ -1166,9 +1169,6 @@
   </si>
   <si>
     <t>해왓</t>
-  </si>
-  <si>
-    <t>핸드테일러 제주점</t>
   </si>
   <si>
     <t>행원포구</t>
@@ -3044,10 +3044,10 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>126.700562313292</v>
+        <v>126.263427426534</v>
       </c>
       <c r="C105">
-        <v>35.9672589541567</v>
+        <v>33.410114888054</v>
       </c>
       <c r="D105">
         <v>1</v>
@@ -3058,10 +3058,10 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>126.6550633744681</v>
+        <v>127.170301318472</v>
       </c>
       <c r="C106">
-        <v>33.54898421134452</v>
+        <v>37.60034815839677</v>
       </c>
       <c r="D106">
         <v>1</v>
@@ -3072,10 +3072,10 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>126.566052068164</v>
+        <v>126.6550633744681</v>
       </c>
       <c r="C107">
-        <v>33.2266056999868</v>
+        <v>33.54898421134452</v>
       </c>
       <c r="D107">
         <v>1</v>
@@ -3086,13 +3086,13 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>126.2567097099678</v>
+        <v>126.566052068164</v>
       </c>
       <c r="C108">
-        <v>33.40568769726779</v>
+        <v>33.2266056999868</v>
       </c>
       <c r="D108">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3100,13 +3100,13 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>127.004577565908</v>
+        <v>126.2567097099678</v>
       </c>
       <c r="C109">
-        <v>37.6430227744818</v>
+        <v>33.40568769726779</v>
       </c>
       <c r="D109">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3114,10 +3114,10 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>126.7323666186343</v>
+        <v>127.004577565908</v>
       </c>
       <c r="C110">
-        <v>37.66957750531881</v>
+        <v>37.6430227744818</v>
       </c>
       <c r="D110">
         <v>1</v>
@@ -3128,10 +3128,10 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>126.249828956914</v>
+        <v>126.7323666186343</v>
       </c>
       <c r="C111">
-        <v>33.217732821842</v>
+        <v>37.66957750531881</v>
       </c>
       <c r="D111">
         <v>1</v>
@@ -3142,10 +3142,10 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>126.656859537391</v>
+        <v>126.249828956914</v>
       </c>
       <c r="C112">
-        <v>33.27446673109487</v>
+        <v>33.217732821842</v>
       </c>
       <c r="D112">
         <v>1</v>
@@ -3156,13 +3156,13 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>126.480579828486</v>
+        <v>126.656859537391</v>
       </c>
       <c r="C113">
-        <v>33.4771172717429</v>
+        <v>33.27446673109487</v>
       </c>
       <c r="D113">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3170,13 +3170,13 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>126.390547450636</v>
+        <v>126.480579828486</v>
       </c>
       <c r="C114">
-        <v>33.4875623775152</v>
+        <v>33.4771172717429</v>
       </c>
       <c r="D114">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3184,10 +3184,10 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>126.25198273649</v>
+        <v>126.390547450636</v>
       </c>
       <c r="C115">
-        <v>33.4033458147276</v>
+        <v>33.4875623775152</v>
       </c>
       <c r="D115">
         <v>1</v>
@@ -3198,10 +3198,10 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>126.604145948421</v>
+        <v>126.25198273649</v>
       </c>
       <c r="C116">
-        <v>33.2415952821835</v>
+        <v>33.4033458147276</v>
       </c>
       <c r="D116">
         <v>1</v>
@@ -3212,10 +3212,10 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>126.6195497744862</v>
+        <v>126.604145948421</v>
       </c>
       <c r="C117">
-        <v>33.25097165010218</v>
+        <v>33.2415952821835</v>
       </c>
       <c r="D117">
         <v>1</v>
@@ -3226,10 +3226,10 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>126.352593551465</v>
+        <v>126.6195497744862</v>
       </c>
       <c r="C118">
-        <v>33.31110694796215</v>
+        <v>33.25097165010218</v>
       </c>
       <c r="D118">
         <v>1</v>
@@ -3240,10 +3240,10 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>129.440598278195</v>
+        <v>126.352593551465</v>
       </c>
       <c r="C119">
-        <v>35.63185535405999</v>
+        <v>33.31110694796215</v>
       </c>
       <c r="D119">
         <v>1</v>
@@ -3254,13 +3254,13 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>126.6414615517299</v>
+        <v>129.440598278195</v>
       </c>
       <c r="C120">
-        <v>33.54536805977742</v>
+        <v>35.63185535405999</v>
       </c>
       <c r="D120">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3268,13 +3268,13 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>126.263436208895</v>
+        <v>126.6414615517299</v>
       </c>
       <c r="C121">
-        <v>33.410093302084</v>
+        <v>33.54536805977742</v>
       </c>
       <c r="D121">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3282,13 +3282,13 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>126.561696109142</v>
+        <v>126.263436208895</v>
       </c>
       <c r="C122">
-        <v>33.2619487915006</v>
+        <v>33.410093302084</v>
       </c>
       <c r="D122">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3296,13 +3296,13 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>126.387439255121</v>
+        <v>126.561696109142</v>
       </c>
       <c r="C123">
-        <v>33.305048981119</v>
+        <v>33.2619487915006</v>
       </c>
       <c r="D123">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3310,10 +3310,10 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>126.793482648569</v>
+        <v>126.387439255121</v>
       </c>
       <c r="C124">
-        <v>33.5567612646124</v>
+        <v>33.305048981119</v>
       </c>
       <c r="D124">
         <v>1</v>
@@ -3324,10 +3324,10 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>126.6673937851523</v>
+        <v>126.793482648569</v>
       </c>
       <c r="C125">
-        <v>33.54129671552933</v>
+        <v>33.5567612646124</v>
       </c>
       <c r="D125">
         <v>1</v>
@@ -3338,10 +3338,10 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>126.6049225873306</v>
+        <v>126.6673937851523</v>
       </c>
       <c r="C126">
-        <v>33.26190881355424</v>
+        <v>33.54129671552933</v>
       </c>
       <c r="D126">
         <v>1</v>
@@ -3352,10 +3352,10 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>126.837170217769</v>
+        <v>126.6049225873306</v>
       </c>
       <c r="C127">
-        <v>33.5377198075388</v>
+        <v>33.26190881355424</v>
       </c>
       <c r="D127">
         <v>1</v>
@@ -3366,10 +3366,10 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>126.8380559682081</v>
+        <v>126.837170217769</v>
       </c>
       <c r="C128">
-        <v>33.53500265194748</v>
+        <v>33.5377198075388</v>
       </c>
       <c r="D128">
         <v>1</v>
@@ -3380,10 +3380,10 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>126.75249576943</v>
+        <v>126.8380559682081</v>
       </c>
       <c r="C129">
-        <v>33.4134970849722</v>
+        <v>33.53500265194748</v>
       </c>
       <c r="D129">
         <v>1</v>
@@ -3394,13 +3394,13 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>126.6163363707546</v>
+        <v>126.75249576943</v>
       </c>
       <c r="C130">
-        <v>33.2569936969959</v>
+        <v>33.4134970849722</v>
       </c>
       <c r="D130">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3408,13 +3408,13 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>126.919897039456</v>
+        <v>126.6163363707546</v>
       </c>
       <c r="C131">
-        <v>33.4692790800661</v>
+        <v>33.2569936969959</v>
       </c>
       <c r="D131">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3422,10 +3422,10 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>126.442503496315</v>
+        <v>126.919897039456</v>
       </c>
       <c r="C132">
-        <v>33.2532811791985</v>
+        <v>33.4692790800661</v>
       </c>
       <c r="D132">
         <v>2</v>
@@ -3436,10 +3436,10 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>127.037388914855</v>
+        <v>126.442503496315</v>
       </c>
       <c r="C133">
-        <v>37.5029816070158</v>
+        <v>33.2532811791985</v>
       </c>
       <c r="D133">
         <v>2</v>
@@ -3450,10 +3450,10 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>126.25100729349</v>
+        <v>127.037388914855</v>
       </c>
       <c r="C134">
-        <v>33.2189264451744</v>
+        <v>37.5029816070158</v>
       </c>
       <c r="D134">
         <v>2</v>
@@ -3464,13 +3464,13 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>127.084859578178</v>
+        <v>126.25100729349</v>
       </c>
       <c r="C135">
-        <v>36.2070820088624</v>
+        <v>33.2189264451744</v>
       </c>
       <c r="D135">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3478,10 +3478,10 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>126.916921465463</v>
+        <v>127.084859578178</v>
       </c>
       <c r="C136">
-        <v>33.4489295871352</v>
+        <v>36.2070820088624</v>
       </c>
       <c r="D136">
         <v>1</v>
@@ -3492,10 +3492,10 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>126.688343646646</v>
+        <v>126.916921465463</v>
       </c>
       <c r="C137">
-        <v>33.54549132858239</v>
+        <v>33.4489295871352</v>
       </c>
       <c r="D137">
         <v>1</v>
@@ -3506,13 +3506,13 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>126.312201837589</v>
+        <v>126.688343646646</v>
       </c>
       <c r="C138">
-        <v>33.4620991409563</v>
+        <v>33.54549132858239</v>
       </c>
       <c r="D138">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3520,13 +3520,13 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>126.83381240385</v>
+        <v>126.312201837589</v>
       </c>
       <c r="C139">
-        <v>33.3113273092963</v>
+        <v>33.4620991409563</v>
       </c>
       <c r="D139">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3534,13 +3534,13 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>126.503340845846</v>
+        <v>126.83381240385</v>
       </c>
       <c r="C140">
-        <v>33.4733445289836</v>
+        <v>33.3113273092963</v>
       </c>
       <c r="D140">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3548,13 +3548,13 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>126.791334459915</v>
+        <v>126.503340845846</v>
       </c>
       <c r="C141">
-        <v>33.5526644253877</v>
+        <v>33.4733445289836</v>
       </c>
       <c r="D141">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3562,10 +3562,10 @@
         <v>144</v>
       </c>
       <c r="B142">
-        <v>126.357152821692</v>
+        <v>126.791334459915</v>
       </c>
       <c r="C142">
-        <v>33.2597323746481</v>
+        <v>33.5526644253877</v>
       </c>
       <c r="D142">
         <v>1</v>
@@ -3576,10 +3576,10 @@
         <v>145</v>
       </c>
       <c r="B143">
-        <v>126.227348369237</v>
+        <v>126.357152821692</v>
       </c>
       <c r="C143">
-        <v>33.4102777124648</v>
+        <v>33.2597323746481</v>
       </c>
       <c r="D143">
         <v>1</v>
@@ -3590,13 +3590,13 @@
         <v>146</v>
       </c>
       <c r="B144">
-        <v>126.80998754971</v>
+        <v>126.227348369237</v>
       </c>
       <c r="C144">
-        <v>33.4904083697986</v>
+        <v>33.4102777124648</v>
       </c>
       <c r="D144">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3604,13 +3604,13 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>126.564574977419</v>
+        <v>126.80998754971</v>
       </c>
       <c r="C145">
-        <v>33.2449758067437</v>
+        <v>33.4904083697986</v>
       </c>
       <c r="D145">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3618,10 +3618,10 @@
         <v>148</v>
       </c>
       <c r="B146">
-        <v>126.301300420241</v>
+        <v>126.564574977419</v>
       </c>
       <c r="C146">
-        <v>33.290432049884</v>
+        <v>33.2449758067437</v>
       </c>
       <c r="D146">
         <v>2</v>
@@ -3632,13 +3632,13 @@
         <v>149</v>
       </c>
       <c r="B147">
-        <v>126.555112221785</v>
+        <v>126.301300420241</v>
       </c>
       <c r="C147">
-        <v>33.2430344682521</v>
+        <v>33.290432049884</v>
       </c>
       <c r="D147">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3646,10 +3646,10 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>126.307758644674</v>
+        <v>126.555112221785</v>
       </c>
       <c r="C148">
-        <v>33.2349577089985</v>
+        <v>33.2430344682521</v>
       </c>
       <c r="D148">
         <v>1</v>
@@ -3660,10 +3660,10 @@
         <v>151</v>
       </c>
       <c r="B149">
-        <v>126.30774087672</v>
+        <v>126.307758644674</v>
       </c>
       <c r="C149">
-        <v>33.2287707148007</v>
+        <v>33.2349577089985</v>
       </c>
       <c r="D149">
         <v>1</v>
@@ -3674,13 +3674,13 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>126.6264973039457</v>
+        <v>126.30774087672</v>
       </c>
       <c r="C150">
-        <v>33.4220328349945</v>
+        <v>33.2287707148007</v>
       </c>
       <c r="D150">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3688,13 +3688,13 @@
         <v>153</v>
       </c>
       <c r="B151">
-        <v>126.381106668339</v>
+        <v>126.6264973039457</v>
       </c>
       <c r="C151">
-        <v>33.4842446359284</v>
+        <v>33.4220328349945</v>
       </c>
       <c r="D151">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3702,13 +3702,13 @@
         <v>154</v>
       </c>
       <c r="B152">
-        <v>126.693840600964</v>
+        <v>126.381106668339</v>
       </c>
       <c r="C152">
-        <v>33.4325741154168</v>
+        <v>33.4842446359284</v>
       </c>
       <c r="D152">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3716,24 +3716,24 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>126.313425322789</v>
+        <v>126.693840600964</v>
       </c>
       <c r="C153">
-        <v>33.2413040368283</v>
+        <v>33.4325741154168</v>
       </c>
       <c r="D153">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B154">
-        <v>128.538701442661</v>
+        <v>126.313425322789</v>
       </c>
       <c r="C154">
-        <v>34.8606897375716</v>
+        <v>33.2413040368283</v>
       </c>
       <c r="D154">
         <v>1</v>
@@ -3744,10 +3744,10 @@
         <v>156</v>
       </c>
       <c r="B155">
-        <v>126.554161509656</v>
+        <v>128.538701442661</v>
       </c>
       <c r="C155">
-        <v>33.4475067639852</v>
+        <v>34.8606897375716</v>
       </c>
       <c r="D155">
         <v>1</v>
@@ -3758,10 +3758,10 @@
         <v>157</v>
       </c>
       <c r="B156">
-        <v>126.568206397719</v>
+        <v>126.554161509656</v>
       </c>
       <c r="C156">
-        <v>33.5249386753043</v>
+        <v>33.4475067639852</v>
       </c>
       <c r="D156">
         <v>1</v>
@@ -3772,10 +3772,10 @@
         <v>158</v>
       </c>
       <c r="B157">
-        <v>126.735702486445</v>
+        <v>126.568206397719</v>
       </c>
       <c r="C157">
-        <v>33.5482413382201</v>
+        <v>33.5249386753043</v>
       </c>
       <c r="D157">
         <v>1</v>
@@ -3786,13 +3786,13 @@
         <v>159</v>
       </c>
       <c r="B158">
-        <v>126.49151979485</v>
+        <v>126.735702486445</v>
       </c>
       <c r="C158">
-        <v>33.4917504047058</v>
+        <v>33.5482413382201</v>
       </c>
       <c r="D158">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3800,13 +3800,13 @@
         <v>160</v>
       </c>
       <c r="B159">
-        <v>126.413451221879</v>
+        <v>126.49151979485</v>
       </c>
       <c r="C159">
-        <v>33.2585789099797</v>
+        <v>33.4917504047058</v>
       </c>
       <c r="D159">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3814,13 +3814,13 @@
         <v>161</v>
       </c>
       <c r="B160">
-        <v>126.5590718446962</v>
+        <v>126.413451221879</v>
       </c>
       <c r="C160">
-        <v>33.24768024521738</v>
+        <v>33.2585789099797</v>
       </c>
       <c r="D160">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3828,13 +3828,13 @@
         <v>162</v>
       </c>
       <c r="B161">
-        <v>126.56259103752</v>
+        <v>126.5590718446962</v>
       </c>
       <c r="C161">
-        <v>33.2434541052246</v>
+        <v>33.24768024521738</v>
       </c>
       <c r="D161">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3842,13 +3842,13 @@
         <v>163</v>
       </c>
       <c r="B162">
-        <v>126.498627156523</v>
+        <v>126.357711941768</v>
       </c>
       <c r="C162">
-        <v>33.2299948343901</v>
+        <v>33.3661936453469</v>
       </c>
       <c r="D162">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3856,13 +3856,13 @@
         <v>164</v>
       </c>
       <c r="B163">
-        <v>126.5642035970351</v>
+        <v>126.56259103752</v>
       </c>
       <c r="C163">
-        <v>33.25537661449773</v>
+        <v>33.2434541052246</v>
       </c>
       <c r="D163">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3870,13 +3870,13 @@
         <v>165</v>
       </c>
       <c r="B164">
-        <v>126.558616052674</v>
+        <v>126.498627156523</v>
       </c>
       <c r="C164">
-        <v>33.2393033784206</v>
+        <v>33.2299948343901</v>
       </c>
       <c r="D164">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3884,13 +3884,13 @@
         <v>166</v>
       </c>
       <c r="B165">
-        <v>126.566400846169</v>
+        <v>126.5642035970351</v>
       </c>
       <c r="C165">
-        <v>33.2367989759913</v>
+        <v>33.25537661449773</v>
       </c>
       <c r="D165">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3898,10 +3898,10 @@
         <v>167</v>
       </c>
       <c r="B166">
-        <v>126.582205900092</v>
+        <v>126.558616052674</v>
       </c>
       <c r="C166">
-        <v>33.2478710106405</v>
+        <v>33.2393033784206</v>
       </c>
       <c r="D166">
         <v>2</v>
@@ -3912,13 +3912,13 @@
         <v>168</v>
       </c>
       <c r="B167">
-        <v>126.536350990028</v>
+        <v>126.566400846169</v>
       </c>
       <c r="C167">
-        <v>33.2440442964123</v>
+        <v>33.2367989759913</v>
       </c>
       <c r="D167">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3926,13 +3926,13 @@
         <v>169</v>
       </c>
       <c r="B168">
-        <v>126.3172648025269</v>
+        <v>126.582205900092</v>
       </c>
       <c r="C168">
-        <v>33.3027546946979</v>
+        <v>33.2478710106405</v>
       </c>
       <c r="D168">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3940,10 +3940,10 @@
         <v>170</v>
       </c>
       <c r="B169">
-        <v>126.615933571597</v>
+        <v>126.536350990028</v>
       </c>
       <c r="C169">
-        <v>33.2421119074451</v>
+        <v>33.2440442964123</v>
       </c>
       <c r="D169">
         <v>1</v>
@@ -3954,13 +3954,13 @@
         <v>171</v>
       </c>
       <c r="B170">
-        <v>126.677893828794</v>
+        <v>126.3172648025269</v>
       </c>
       <c r="C170">
-        <v>33.5458432546933</v>
+        <v>33.3027546946979</v>
       </c>
       <c r="D170">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3968,13 +3968,13 @@
         <v>172</v>
       </c>
       <c r="B171">
-        <v>126.536501983154</v>
+        <v>126.615933571597</v>
       </c>
       <c r="C171">
-        <v>33.2504031491774</v>
+        <v>33.2421119074451</v>
       </c>
       <c r="D171">
-        <v>36</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3982,13 +3982,13 @@
         <v>173</v>
       </c>
       <c r="B172">
-        <v>126.933565862831</v>
+        <v>126.677893828794</v>
       </c>
       <c r="C172">
-        <v>33.4609490766286</v>
+        <v>33.5458432546933</v>
       </c>
       <c r="D172">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3996,13 +3996,13 @@
         <v>174</v>
       </c>
       <c r="B173">
-        <v>126.9346410979537</v>
+        <v>126.536501983154</v>
       </c>
       <c r="C173">
-        <v>33.46154471062106</v>
+        <v>33.2504031491774</v>
       </c>
       <c r="D173">
-        <v>1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4010,13 +4010,13 @@
         <v>175</v>
       </c>
       <c r="B174">
-        <v>126.940537521366</v>
+        <v>126.933565862831</v>
       </c>
       <c r="C174">
-        <v>33.4591349705437</v>
+        <v>33.4609490766286</v>
       </c>
       <c r="D174">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4024,10 +4024,10 @@
         <v>176</v>
       </c>
       <c r="B175">
-        <v>127.054316373987</v>
+        <v>126.9346410979537</v>
       </c>
       <c r="C175">
-        <v>37.54602762815355</v>
+        <v>33.46154471062106</v>
       </c>
       <c r="D175">
         <v>1</v>
@@ -4038,10 +4038,10 @@
         <v>177</v>
       </c>
       <c r="B176">
-        <v>126.8003779257426</v>
+        <v>126.940537521366</v>
       </c>
       <c r="C176">
-        <v>33.38451163130228</v>
+        <v>33.4591349705437</v>
       </c>
       <c r="D176">
         <v>2</v>
@@ -4052,10 +4052,10 @@
         <v>178</v>
       </c>
       <c r="B177">
-        <v>126.8012517800748</v>
+        <v>127.054316373987</v>
       </c>
       <c r="C177">
-        <v>33.38919423813421</v>
+        <v>37.54602762815355</v>
       </c>
       <c r="D177">
         <v>1</v>
@@ -4066,13 +4066,13 @@
         <v>179</v>
       </c>
       <c r="B178">
-        <v>126.327321076199</v>
+        <v>126.8003779257426</v>
       </c>
       <c r="C178">
-        <v>33.3477698762559</v>
+        <v>33.38451163130228</v>
       </c>
       <c r="D178">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4080,10 +4080,10 @@
         <v>180</v>
       </c>
       <c r="B179">
-        <v>126.9317027172299</v>
+        <v>126.8012517800748</v>
       </c>
       <c r="C179">
-        <v>33.46103101236282</v>
+        <v>33.38919423813421</v>
       </c>
       <c r="D179">
         <v>1</v>
@@ -4094,13 +4094,13 @@
         <v>181</v>
       </c>
       <c r="B180">
-        <v>126.567579770359</v>
+        <v>126.327321076199</v>
       </c>
       <c r="C180">
-        <v>33.2466488975268</v>
+        <v>33.3477698762559</v>
       </c>
       <c r="D180">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4108,10 +4108,10 @@
         <v>182</v>
       </c>
       <c r="B181">
-        <v>126.491286666991</v>
+        <v>126.9317027172299</v>
       </c>
       <c r="C181">
-        <v>33.4881899632066</v>
+        <v>33.46103101236282</v>
       </c>
       <c r="D181">
         <v>1</v>
@@ -4122,13 +4122,13 @@
         <v>183</v>
       </c>
       <c r="B182">
-        <v>126.320427664353</v>
+        <v>126.567579770359</v>
       </c>
       <c r="C182">
-        <v>33.4638647293607</v>
+        <v>33.2466488975268</v>
       </c>
       <c r="D182">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4136,10 +4136,10 @@
         <v>184</v>
       </c>
       <c r="B183">
-        <v>129.157622703517</v>
+        <v>126.491286666991</v>
       </c>
       <c r="C183">
-        <v>35.1600985518898</v>
+        <v>33.4881899632066</v>
       </c>
       <c r="D183">
         <v>1</v>
@@ -4150,13 +4150,13 @@
         <v>185</v>
       </c>
       <c r="B184">
-        <v>126.624331997703</v>
+        <v>126.320427664353</v>
       </c>
       <c r="C184">
-        <v>33.252354866117</v>
+        <v>33.4638647293607</v>
       </c>
       <c r="D184">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4164,10 +4164,10 @@
         <v>186</v>
       </c>
       <c r="B185">
-        <v>126.607522516229</v>
+        <v>129.157622703517</v>
       </c>
       <c r="C185">
-        <v>33.2601002612173</v>
+        <v>35.1600985518898</v>
       </c>
       <c r="D185">
         <v>1</v>
@@ -4178,13 +4178,13 @@
         <v>187</v>
       </c>
       <c r="B186">
-        <v>126.7121269102888</v>
+        <v>126.624331997703</v>
       </c>
       <c r="C186">
-        <v>33.33037452211467</v>
+        <v>33.252354866117</v>
       </c>
       <c r="D186">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4192,13 +4192,13 @@
         <v>188</v>
       </c>
       <c r="B187">
-        <v>126.48822661849</v>
+        <v>126.607522516229</v>
       </c>
       <c r="C187">
-        <v>33.4706071151816</v>
+        <v>33.2601002612173</v>
       </c>
       <c r="D187">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4206,13 +4206,13 @@
         <v>189</v>
       </c>
       <c r="B188">
-        <v>126.163172314081</v>
+        <v>126.48822661849</v>
       </c>
       <c r="C188">
-        <v>33.2946169024905</v>
+        <v>33.4706071151816</v>
       </c>
       <c r="D188">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4220,10 +4220,10 @@
         <v>190</v>
       </c>
       <c r="B189">
-        <v>126.808164095859</v>
+        <v>126.163172314081</v>
       </c>
       <c r="C189">
-        <v>33.5540837076564</v>
+        <v>33.2946169024905</v>
       </c>
       <c r="D189">
         <v>1</v>
@@ -4234,10 +4234,10 @@
         <v>191</v>
       </c>
       <c r="B190">
-        <v>126.896577199828</v>
+        <v>126.808164095859</v>
       </c>
       <c r="C190">
-        <v>33.4122222066663</v>
+        <v>33.5540837076564</v>
       </c>
       <c r="D190">
         <v>1</v>
@@ -4248,10 +4248,10 @@
         <v>192</v>
       </c>
       <c r="B191">
-        <v>126.855466622674</v>
+        <v>126.896577199828</v>
       </c>
       <c r="C191">
-        <v>33.3391570072211</v>
+        <v>33.4122222066663</v>
       </c>
       <c r="D191">
         <v>1</v>
@@ -4262,10 +4262,10 @@
         <v>193</v>
       </c>
       <c r="B192">
-        <v>126.241875940013</v>
+        <v>126.855466622674</v>
       </c>
       <c r="C192">
-        <v>33.3952062465959</v>
+        <v>33.3391570072211</v>
       </c>
       <c r="D192">
         <v>1</v>
@@ -4276,10 +4276,10 @@
         <v>194</v>
       </c>
       <c r="B193">
-        <v>126.2783818823452</v>
+        <v>126.241875940013</v>
       </c>
       <c r="C193">
-        <v>33.27077588102497</v>
+        <v>33.3952062465959</v>
       </c>
       <c r="D193">
         <v>1</v>
@@ -4290,10 +4290,10 @@
         <v>195</v>
       </c>
       <c r="B194">
-        <v>126.4808185246333</v>
+        <v>126.2783818823452</v>
       </c>
       <c r="C194">
-        <v>33.48904453445883</v>
+        <v>33.27077588102497</v>
       </c>
       <c r="D194">
         <v>1</v>
@@ -4304,10 +4304,10 @@
         <v>196</v>
       </c>
       <c r="B195">
-        <v>126.319174715524</v>
+        <v>126.4808185246333</v>
       </c>
       <c r="C195">
-        <v>33.4667248926721</v>
+        <v>33.48904453445883</v>
       </c>
       <c r="D195">
         <v>1</v>
@@ -4318,10 +4318,10 @@
         <v>197</v>
       </c>
       <c r="B196">
-        <v>127.140982859768</v>
+        <v>126.319174715524</v>
       </c>
       <c r="C196">
-        <v>35.8172610285255</v>
+        <v>33.4667248926721</v>
       </c>
       <c r="D196">
         <v>1</v>
@@ -4332,10 +4332,10 @@
         <v>198</v>
       </c>
       <c r="B197">
-        <v>126.525603048125</v>
+        <v>127.140982859768</v>
       </c>
       <c r="C197">
-        <v>33.2553029735526</v>
+        <v>35.8172610285255</v>
       </c>
       <c r="D197">
         <v>1</v>
@@ -4346,10 +4346,10 @@
         <v>199</v>
       </c>
       <c r="B198">
-        <v>126.513531251127</v>
+        <v>126.525603048125</v>
       </c>
       <c r="C198">
-        <v>33.50640127984749</v>
+        <v>33.2553029735526</v>
       </c>
       <c r="D198">
         <v>1</v>
@@ -4360,10 +4360,10 @@
         <v>200</v>
       </c>
       <c r="B199">
-        <v>126.537571842149</v>
+        <v>126.513531251127</v>
       </c>
       <c r="C199">
-        <v>33.4922770263572</v>
+        <v>33.50640127984749</v>
       </c>
       <c r="D199">
         <v>1</v>
@@ -4374,13 +4374,13 @@
         <v>201</v>
       </c>
       <c r="B200">
-        <v>126.7930156107304</v>
+        <v>126.537571842149</v>
       </c>
       <c r="C200">
-        <v>33.53043028241525</v>
+        <v>33.4922770263572</v>
       </c>
       <c r="D200">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4388,13 +4388,13 @@
         <v>202</v>
       </c>
       <c r="B201">
-        <v>126.5688129437414</v>
+        <v>126.8068454923986</v>
       </c>
       <c r="C201">
-        <v>33.24900102560021</v>
+        <v>33.55627072861846</v>
       </c>
       <c r="D201">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4402,10 +4402,10 @@
         <v>203</v>
       </c>
       <c r="B202">
-        <v>126.538175779101</v>
+        <v>126.5688129437414</v>
       </c>
       <c r="C202">
-        <v>33.51330080867158</v>
+        <v>33.24900102560021</v>
       </c>
       <c r="D202">
         <v>1</v>
@@ -4416,13 +4416,13 @@
         <v>204</v>
       </c>
       <c r="B203">
-        <v>126.5415614572426</v>
+        <v>126.538175779101</v>
       </c>
       <c r="C203">
-        <v>33.50541904737267</v>
+        <v>33.51330080867158</v>
       </c>
       <c r="D203">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4430,13 +4430,13 @@
         <v>205</v>
       </c>
       <c r="B204">
-        <v>126.1742060465573</v>
+        <v>126.5415614572426</v>
       </c>
       <c r="C204">
-        <v>33.34308102674004</v>
+        <v>33.50541904737267</v>
       </c>
       <c r="D204">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4444,13 +4444,13 @@
         <v>206</v>
       </c>
       <c r="B205">
-        <v>126.8679163319506</v>
+        <v>126.1742060465573</v>
       </c>
       <c r="C205">
-        <v>33.35626839766113</v>
+        <v>33.34308102674004</v>
       </c>
       <c r="D205">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4458,10 +4458,10 @@
         <v>207</v>
       </c>
       <c r="B206">
-        <v>126.863724460119</v>
+        <v>126.8679163319506</v>
       </c>
       <c r="C206">
-        <v>33.3560087082177</v>
+        <v>33.35626839766113</v>
       </c>
       <c r="D206">
         <v>1</v>
@@ -4472,10 +4472,10 @@
         <v>208</v>
       </c>
       <c r="B207">
-        <v>126.3010255519544</v>
+        <v>126.863724460119</v>
       </c>
       <c r="C207">
-        <v>33.22737172347889</v>
+        <v>33.3560087082177</v>
       </c>
       <c r="D207">
         <v>1</v>
@@ -4486,10 +4486,10 @@
         <v>209</v>
       </c>
       <c r="B208">
-        <v>126.4508791493221</v>
+        <v>126.3010255519544</v>
       </c>
       <c r="C208">
-        <v>33.45568460425746</v>
+        <v>33.22737172347889</v>
       </c>
       <c r="D208">
         <v>1</v>
@@ -4500,13 +4500,13 @@
         <v>210</v>
       </c>
       <c r="B209">
-        <v>126.839808889717</v>
+        <v>126.4508791493221</v>
       </c>
       <c r="C209">
-        <v>33.536049883668</v>
+        <v>33.45568460425746</v>
       </c>
       <c r="D209">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4514,13 +4514,13 @@
         <v>211</v>
       </c>
       <c r="B210">
-        <v>126.506021163811</v>
+        <v>126.839808889717</v>
       </c>
       <c r="C210">
-        <v>33.23151030047489</v>
+        <v>33.536049883668</v>
       </c>
       <c r="D210">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4528,13 +4528,13 @@
         <v>212</v>
       </c>
       <c r="B211">
-        <v>126.540067668993</v>
+        <v>126.506021163811</v>
       </c>
       <c r="C211">
-        <v>33.5086736674934</v>
+        <v>33.23151030047489</v>
       </c>
       <c r="D211">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4542,13 +4542,13 @@
         <v>213</v>
       </c>
       <c r="B212">
-        <v>126.777214998455</v>
+        <v>126.540067668993</v>
       </c>
       <c r="C212">
-        <v>33.4485841755621</v>
+        <v>33.5086736674934</v>
       </c>
       <c r="D212">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4556,13 +4556,13 @@
         <v>214</v>
       </c>
       <c r="B213">
-        <v>126.839173835129</v>
+        <v>126.777214998455</v>
       </c>
       <c r="C213">
-        <v>33.366986353012</v>
+        <v>33.4485841755621</v>
       </c>
       <c r="D213">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4570,13 +4570,13 @@
         <v>215</v>
       </c>
       <c r="B214">
-        <v>126.2453300552408</v>
+        <v>126.839173835129</v>
       </c>
       <c r="C214">
-        <v>33.39898331799428</v>
+        <v>33.366986353012</v>
       </c>
       <c r="D214">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4584,13 +4584,13 @@
         <v>216</v>
       </c>
       <c r="B215">
-        <v>126.620505165467</v>
+        <v>126.2453300552408</v>
       </c>
       <c r="C215">
-        <v>33.2508934221554</v>
+        <v>33.39898331799428</v>
       </c>
       <c r="D215">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4598,13 +4598,13 @@
         <v>217</v>
       </c>
       <c r="B216">
-        <v>126.525454751914</v>
+        <v>126.620505165467</v>
       </c>
       <c r="C216">
-        <v>33.5168590918142</v>
+        <v>33.2508934221554</v>
       </c>
       <c r="D216">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4612,13 +4612,13 @@
         <v>218</v>
       </c>
       <c r="B217">
-        <v>126.308884574844</v>
+        <v>126.525454751914</v>
       </c>
       <c r="C217">
-        <v>33.4561230220767</v>
+        <v>33.5168590918142</v>
       </c>
       <c r="D217">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4626,13 +4626,13 @@
         <v>219</v>
       </c>
       <c r="B218">
-        <v>126.36867872098</v>
+        <v>126.308884574844</v>
       </c>
       <c r="C218">
-        <v>33.47812329437031</v>
+        <v>33.4561230220767</v>
       </c>
       <c r="D218">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4640,13 +4640,13 @@
         <v>220</v>
       </c>
       <c r="B219">
-        <v>126.2539802609415</v>
+        <v>126.36867872098</v>
       </c>
       <c r="C219">
-        <v>33.30735239828433</v>
+        <v>33.47812329437031</v>
       </c>
       <c r="D219">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4654,13 +4654,13 @@
         <v>221</v>
       </c>
       <c r="B220">
-        <v>126.906031460096</v>
+        <v>126.2539802609415</v>
       </c>
       <c r="C220">
-        <v>33.44814462372958</v>
+        <v>33.30735239828433</v>
       </c>
       <c r="D220">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4668,13 +4668,13 @@
         <v>222</v>
       </c>
       <c r="B221">
-        <v>126.930816827424</v>
+        <v>126.906031460096</v>
       </c>
       <c r="C221">
-        <v>33.4604354586591</v>
+        <v>33.44814462372958</v>
       </c>
       <c r="D221">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4682,13 +4682,13 @@
         <v>223</v>
       </c>
       <c r="B222">
-        <v>126.4999654844</v>
+        <v>126.930816827424</v>
       </c>
       <c r="C222">
-        <v>33.2685321560634</v>
+        <v>33.4604354586591</v>
       </c>
       <c r="D222">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4696,10 +4696,10 @@
         <v>224</v>
       </c>
       <c r="B223">
-        <v>126.64140822287</v>
+        <v>126.4999654844</v>
       </c>
       <c r="C223">
-        <v>33.5452452889889</v>
+        <v>33.2685321560634</v>
       </c>
       <c r="D223">
         <v>1</v>
@@ -4710,10 +4710,10 @@
         <v>225</v>
       </c>
       <c r="B224">
-        <v>126.836272766003</v>
+        <v>126.64140822287</v>
       </c>
       <c r="C224">
-        <v>33.4150676960228</v>
+        <v>33.5452452889889</v>
       </c>
       <c r="D224">
         <v>1</v>
@@ -4724,10 +4724,10 @@
         <v>226</v>
       </c>
       <c r="B225">
-        <v>126.2914789036507</v>
+        <v>126.836272766003</v>
       </c>
       <c r="C225">
-        <v>33.43527930269975</v>
+        <v>33.4150676960228</v>
       </c>
       <c r="D225">
         <v>1</v>
@@ -4738,10 +4738,10 @@
         <v>227</v>
       </c>
       <c r="B226">
-        <v>126.673629226703</v>
+        <v>126.2914789036507</v>
       </c>
       <c r="C226">
-        <v>33.4439441432707</v>
+        <v>33.43527930269975</v>
       </c>
       <c r="D226">
         <v>1</v>
@@ -4752,13 +4752,13 @@
         <v>228</v>
       </c>
       <c r="B227">
-        <v>126.670278657345</v>
+        <v>126.673629226703</v>
       </c>
       <c r="C227">
-        <v>33.4483387252476</v>
+        <v>33.4439441432707</v>
       </c>
       <c r="D227">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4766,13 +4766,13 @@
         <v>229</v>
       </c>
       <c r="B228">
-        <v>126.858871425193</v>
+        <v>126.670278657345</v>
       </c>
       <c r="C228">
-        <v>33.521423891365</v>
+        <v>33.4483387252476</v>
       </c>
       <c r="D228">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4780,10 +4780,10 @@
         <v>230</v>
       </c>
       <c r="B229">
-        <v>126.636119486047</v>
+        <v>126.858871425193</v>
       </c>
       <c r="C229">
-        <v>33.5400835781119</v>
+        <v>33.521423891365</v>
       </c>
       <c r="D229">
         <v>1</v>
@@ -4794,13 +4794,13 @@
         <v>231</v>
       </c>
       <c r="B230">
-        <v>126.486746198323</v>
+        <v>126.636119486047</v>
       </c>
       <c r="C230">
-        <v>33.4837678651428</v>
+        <v>33.5400835781119</v>
       </c>
       <c r="D230">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4808,13 +4808,13 @@
         <v>232</v>
       </c>
       <c r="B231">
-        <v>126.343985644359</v>
+        <v>126.486746198323</v>
       </c>
       <c r="C231">
-        <v>33.4489603677522</v>
+        <v>33.4837678651428</v>
       </c>
       <c r="D231">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4822,13 +4822,13 @@
         <v>233</v>
       </c>
       <c r="B232">
-        <v>126.488340711676</v>
+        <v>126.343985644359</v>
       </c>
       <c r="C232">
-        <v>33.234443064409</v>
+        <v>33.4489603677522</v>
       </c>
       <c r="D232">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4836,13 +4836,13 @@
         <v>234</v>
       </c>
       <c r="B233">
-        <v>126.671581017399</v>
+        <v>126.488340711676</v>
       </c>
       <c r="C233">
-        <v>33.5421337502958</v>
+        <v>33.234443064409</v>
       </c>
       <c r="D233">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -4850,10 +4850,10 @@
         <v>235</v>
       </c>
       <c r="B234">
-        <v>126.246609519337</v>
+        <v>126.671581017399</v>
       </c>
       <c r="C234">
-        <v>33.399191245515</v>
+        <v>33.5421337502958</v>
       </c>
       <c r="D234">
         <v>1</v>
@@ -4864,10 +4864,10 @@
         <v>236</v>
       </c>
       <c r="B235">
-        <v>127.3737042000892</v>
+        <v>126.246609519337</v>
       </c>
       <c r="C235">
-        <v>36.35257483536207</v>
+        <v>33.399191245515</v>
       </c>
       <c r="D235">
         <v>1</v>
@@ -4878,13 +4878,13 @@
         <v>237</v>
       </c>
       <c r="B236">
-        <v>126.544340522138</v>
+        <v>127.3737042000892</v>
       </c>
       <c r="C236">
-        <v>33.4909893788423</v>
+        <v>36.35257483536207</v>
       </c>
       <c r="D236">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4892,13 +4892,13 @@
         <v>238</v>
       </c>
       <c r="B237">
-        <v>126.289443017025</v>
+        <v>126.544340522138</v>
       </c>
       <c r="C237">
-        <v>33.3059265460649</v>
+        <v>33.4909893788423</v>
       </c>
       <c r="D237">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4906,13 +4906,13 @@
         <v>239</v>
       </c>
       <c r="B238">
-        <v>126.541290672632</v>
+        <v>126.289443017025</v>
       </c>
       <c r="C238">
-        <v>33.4702342098937</v>
+        <v>33.3059265460649</v>
       </c>
       <c r="D238">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -4920,13 +4920,13 @@
         <v>240</v>
       </c>
       <c r="B239">
-        <v>126.3942579959014</v>
+        <v>126.541290672632</v>
       </c>
       <c r="C239">
-        <v>33.26675293523575</v>
+        <v>33.4702342098937</v>
       </c>
       <c r="D239">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4934,13 +4934,13 @@
         <v>241</v>
       </c>
       <c r="B240">
-        <v>126.92229348123</v>
+        <v>126.3942579959014</v>
       </c>
       <c r="C240">
-        <v>33.4697350161441</v>
+        <v>33.26675293523575</v>
       </c>
       <c r="D240">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -4948,13 +4948,13 @@
         <v>242</v>
       </c>
       <c r="B241">
-        <v>126.424190172164</v>
+        <v>126.92229348123</v>
       </c>
       <c r="C241">
-        <v>33.2515892389543</v>
+        <v>33.4697350161441</v>
       </c>
       <c r="D241">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -4962,13 +4962,13 @@
         <v>243</v>
       </c>
       <c r="B242">
-        <v>126.512911882397</v>
+        <v>126.424190172164</v>
       </c>
       <c r="C242">
-        <v>33.237156429558</v>
+        <v>33.2515892389543</v>
       </c>
       <c r="D242">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -4976,13 +4976,13 @@
         <v>244</v>
       </c>
       <c r="B243">
-        <v>126.2579368174734</v>
+        <v>126.512911882397</v>
       </c>
       <c r="C243">
-        <v>33.40498819737068</v>
+        <v>33.237156429558</v>
       </c>
       <c r="D243">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -4990,13 +4990,13 @@
         <v>245</v>
       </c>
       <c r="B244">
-        <v>126.544862271566</v>
+        <v>126.2579368174734</v>
       </c>
       <c r="C244">
-        <v>33.2390338150319</v>
+        <v>33.40498819737068</v>
       </c>
       <c r="D244">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5004,13 +5004,13 @@
         <v>246</v>
       </c>
       <c r="B245">
-        <v>126.263889970387</v>
+        <v>126.544862271566</v>
       </c>
       <c r="C245">
-        <v>33.3960600579083</v>
+        <v>33.2390338150319</v>
       </c>
       <c r="D245">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5018,13 +5018,13 @@
         <v>247</v>
       </c>
       <c r="B246">
-        <v>126.836678549744</v>
+        <v>126.263889970387</v>
       </c>
       <c r="C246">
-        <v>33.5381050437962</v>
+        <v>33.3960600579083</v>
       </c>
       <c r="D246">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5032,13 +5032,13 @@
         <v>248</v>
       </c>
       <c r="B247">
-        <v>126.83251014664</v>
+        <v>126.836678549744</v>
       </c>
       <c r="C247">
-        <v>33.4596996808185</v>
+        <v>33.5381050437962</v>
       </c>
       <c r="D247">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5046,13 +5046,13 @@
         <v>249</v>
       </c>
       <c r="B248">
-        <v>126.471571926708</v>
+        <v>126.83251014664</v>
       </c>
       <c r="C248">
-        <v>33.5091289269459</v>
+        <v>33.4596996808185</v>
       </c>
       <c r="D248">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5060,13 +5060,13 @@
         <v>250</v>
       </c>
       <c r="B249">
-        <v>126.511957109074</v>
+        <v>126.471571926708</v>
       </c>
       <c r="C249">
-        <v>33.5161106216721</v>
+        <v>33.5091289269459</v>
       </c>
       <c r="D249">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5074,13 +5074,13 @@
         <v>251</v>
       </c>
       <c r="B250">
-        <v>126.314736627312</v>
+        <v>126.511957109074</v>
       </c>
       <c r="C250">
-        <v>33.2316567556941</v>
+        <v>33.5161106216721</v>
       </c>
       <c r="D250">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5088,13 +5088,13 @@
         <v>252</v>
       </c>
       <c r="B251">
-        <v>126.514392210646</v>
+        <v>126.314736627312</v>
       </c>
       <c r="C251">
-        <v>33.514883210903</v>
+        <v>33.2316567556941</v>
       </c>
       <c r="D251">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5102,10 +5102,10 @@
         <v>253</v>
       </c>
       <c r="B252">
-        <v>126.955582257582</v>
+        <v>126.514392210646</v>
       </c>
       <c r="C252">
-        <v>33.5044199749505</v>
+        <v>33.514883210903</v>
       </c>
       <c r="D252">
         <v>2</v>
@@ -5116,10 +5116,10 @@
         <v>254</v>
       </c>
       <c r="B253">
-        <v>126.89933675316</v>
+        <v>126.955582257582</v>
       </c>
       <c r="C253">
-        <v>37.5302621509573</v>
+        <v>33.5044199749505</v>
       </c>
       <c r="D253">
         <v>2</v>
@@ -5130,13 +5130,13 @@
         <v>255</v>
       </c>
       <c r="B254">
-        <v>126.698573243357</v>
+        <v>126.89933675316</v>
       </c>
       <c r="C254">
-        <v>33.2726237344419</v>
+        <v>37.5302621509573</v>
       </c>
       <c r="D254">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5144,13 +5144,13 @@
         <v>256</v>
       </c>
       <c r="B255">
-        <v>126.81273045159</v>
+        <v>126.698573243357</v>
       </c>
       <c r="C255">
-        <v>33.3074671989101</v>
+        <v>33.2726237344419</v>
       </c>
       <c r="D255">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5158,10 +5158,10 @@
         <v>257</v>
       </c>
       <c r="B256">
-        <v>126.2332347260001</v>
+        <v>126.81273045159</v>
       </c>
       <c r="C256">
-        <v>33.38781061955039</v>
+        <v>33.3074671989101</v>
       </c>
       <c r="D256">
         <v>1</v>
@@ -5172,13 +5172,13 @@
         <v>258</v>
       </c>
       <c r="B257">
-        <v>126.518411867082</v>
+        <v>126.2332347260001</v>
       </c>
       <c r="C257">
-        <v>33.2414046840509</v>
+        <v>33.38781061955039</v>
       </c>
       <c r="D257">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5186,13 +5186,13 @@
         <v>259</v>
       </c>
       <c r="B258">
-        <v>126.520003422855</v>
+        <v>126.518411867082</v>
       </c>
       <c r="C258">
-        <v>33.5115187080468</v>
+        <v>33.2414046840509</v>
       </c>
       <c r="D258">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5200,10 +5200,10 @@
         <v>260</v>
       </c>
       <c r="B259">
-        <v>126.801353163535</v>
+        <v>126.520003422855</v>
       </c>
       <c r="C259">
-        <v>33.55642071843869</v>
+        <v>33.5115187080468</v>
       </c>
       <c r="D259">
         <v>1</v>
@@ -5214,13 +5214,13 @@
         <v>261</v>
       </c>
       <c r="B260">
-        <v>126.67473058287</v>
+        <v>126.801353163535</v>
       </c>
       <c r="C260">
-        <v>33.2729387205764</v>
+        <v>33.55642071843869</v>
       </c>
       <c r="D260">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5228,13 +5228,13 @@
         <v>262</v>
       </c>
       <c r="B261">
-        <v>126.436090924885</v>
+        <v>126.67473058287</v>
       </c>
       <c r="C261">
-        <v>33.4604778135572</v>
+        <v>33.2729387205764</v>
       </c>
       <c r="D261">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5242,13 +5242,13 @@
         <v>263</v>
       </c>
       <c r="B262">
-        <v>126.563800348044</v>
+        <v>126.436090924885</v>
       </c>
       <c r="C262">
-        <v>33.2445258834582</v>
+        <v>33.4604778135572</v>
       </c>
       <c r="D262">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5256,13 +5256,13 @@
         <v>264</v>
       </c>
       <c r="B263">
-        <v>126.493543553666</v>
+        <v>126.563800348044</v>
       </c>
       <c r="C263">
-        <v>33.4916144376594</v>
+        <v>33.2445258834582</v>
       </c>
       <c r="D263">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5270,13 +5270,13 @@
         <v>265</v>
       </c>
       <c r="B264">
-        <v>126.830666611388</v>
+        <v>126.493543553666</v>
       </c>
       <c r="C264">
-        <v>33.5425256135145</v>
+        <v>33.4916144376594</v>
       </c>
       <c r="D264">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5284,13 +5284,13 @@
         <v>266</v>
       </c>
       <c r="B265">
-        <v>127.0477173686719</v>
+        <v>126.830666611388</v>
       </c>
       <c r="C265">
-        <v>37.54670803042389</v>
+        <v>33.5425256135145</v>
       </c>
       <c r="D265">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5298,13 +5298,13 @@
         <v>267</v>
       </c>
       <c r="B266">
-        <v>127.016853034163</v>
+        <v>127.0477173686719</v>
       </c>
       <c r="C266">
-        <v>37.2849650508447</v>
+        <v>37.54670803042389</v>
       </c>
       <c r="D266">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5312,10 +5312,10 @@
         <v>268</v>
       </c>
       <c r="B267">
-        <v>126.427816661163</v>
+        <v>127.016853034163</v>
       </c>
       <c r="C267">
-        <v>33.2562835928038</v>
+        <v>37.2849650508447</v>
       </c>
       <c r="D267">
         <v>2</v>
@@ -5326,13 +5326,13 @@
         <v>269</v>
       </c>
       <c r="B268">
-        <v>126.2646274757637</v>
+        <v>126.427816661163</v>
       </c>
       <c r="C268">
-        <v>33.41135177289947</v>
+        <v>33.2562835928038</v>
       </c>
       <c r="D268">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5340,13 +5340,13 @@
         <v>270</v>
       </c>
       <c r="B269">
-        <v>126.545923311664</v>
+        <v>126.2646274757637</v>
       </c>
       <c r="C269">
-        <v>33.49821695694911</v>
+        <v>33.41135177289947</v>
       </c>
       <c r="D269">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5354,10 +5354,10 @@
         <v>271</v>
       </c>
       <c r="B270">
-        <v>126.778492762123</v>
+        <v>126.545923311664</v>
       </c>
       <c r="C270">
-        <v>37.4773633722549</v>
+        <v>33.49821695694911</v>
       </c>
       <c r="D270">
         <v>1</v>
@@ -5368,13 +5368,13 @@
         <v>272</v>
       </c>
       <c r="B271">
-        <v>126.5170077277901</v>
+        <v>126.778492762123</v>
       </c>
       <c r="C271">
-        <v>33.51681562514369</v>
+        <v>37.4773633722549</v>
       </c>
       <c r="D271">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5382,13 +5382,13 @@
         <v>273</v>
       </c>
       <c r="B272">
-        <v>126.488970502278</v>
+        <v>126.5170077277901</v>
       </c>
       <c r="C272">
-        <v>33.4773000120236</v>
+        <v>33.51681562514369</v>
       </c>
       <c r="D272">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5396,10 +5396,10 @@
         <v>274</v>
       </c>
       <c r="B273">
-        <v>126.5326117866329</v>
+        <v>126.488970502278</v>
       </c>
       <c r="C273">
-        <v>33.24339916063207</v>
+        <v>33.4773000120236</v>
       </c>
       <c r="D273">
         <v>1</v>
@@ -5410,10 +5410,10 @@
         <v>275</v>
       </c>
       <c r="B274">
-        <v>127.0498294859075</v>
+        <v>126.5326117866329</v>
       </c>
       <c r="C274">
-        <v>37.7409034544376</v>
+        <v>33.24339916063207</v>
       </c>
       <c r="D274">
         <v>1</v>
@@ -5424,10 +5424,10 @@
         <v>276</v>
       </c>
       <c r="B275">
-        <v>126.5157763577794</v>
+        <v>127.0498294859075</v>
       </c>
       <c r="C275">
-        <v>33.5164321503001</v>
+        <v>37.7409034544376</v>
       </c>
       <c r="D275">
         <v>1</v>
@@ -5438,10 +5438,10 @@
         <v>277</v>
       </c>
       <c r="B276">
-        <v>128.950518146314</v>
+        <v>126.5157763577794</v>
       </c>
       <c r="C276">
-        <v>35.1748834063223</v>
+        <v>33.5164321503001</v>
       </c>
       <c r="D276">
         <v>1</v>
@@ -5452,10 +5452,10 @@
         <v>278</v>
       </c>
       <c r="B277">
-        <v>129.180299562099</v>
+        <v>128.950518146314</v>
       </c>
       <c r="C277">
-        <v>35.325561130552</v>
+        <v>35.1748834063223</v>
       </c>
       <c r="D277">
         <v>1</v>
@@ -5466,10 +5466,10 @@
         <v>279</v>
       </c>
       <c r="B278">
-        <v>126.898827102644</v>
+        <v>129.180299562099</v>
       </c>
       <c r="C278">
-        <v>33.411502768429</v>
+        <v>35.325561130552</v>
       </c>
       <c r="D278">
         <v>1</v>
@@ -5480,13 +5480,13 @@
         <v>280</v>
       </c>
       <c r="B279">
-        <v>126.492769004244</v>
+        <v>126.898827102644</v>
       </c>
       <c r="C279">
-        <v>33.5070789578184</v>
+        <v>33.411502768429</v>
       </c>
       <c r="D279">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5494,13 +5494,13 @@
         <v>281</v>
       </c>
       <c r="B280">
-        <v>126.545875710283</v>
+        <v>126.492769004244</v>
       </c>
       <c r="C280">
-        <v>33.3797769227161</v>
+        <v>33.5070789578184</v>
       </c>
       <c r="D280">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5508,13 +5508,13 @@
         <v>282</v>
       </c>
       <c r="B281">
-        <v>126.489644694081</v>
+        <v>126.545875710283</v>
       </c>
       <c r="C281">
-        <v>33.4525846506737</v>
+        <v>33.3797769227161</v>
       </c>
       <c r="D281">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5522,10 +5522,10 @@
         <v>283</v>
       </c>
       <c r="B282">
-        <v>126.369924259122</v>
+        <v>126.489644694081</v>
       </c>
       <c r="C282">
-        <v>33.4778699756952</v>
+        <v>33.4525846506737</v>
       </c>
       <c r="D282">
         <v>1</v>
@@ -5536,13 +5536,13 @@
         <v>284</v>
       </c>
       <c r="B283">
-        <v>126.253604031769</v>
+        <v>126.369924259122</v>
       </c>
       <c r="C283">
-        <v>33.3540024518805</v>
+        <v>33.4778699756952</v>
       </c>
       <c r="D283">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5550,13 +5550,13 @@
         <v>285</v>
       </c>
       <c r="B284">
-        <v>126.659063612562</v>
+        <v>126.253604031769</v>
       </c>
       <c r="C284">
-        <v>33.4482182362494</v>
+        <v>33.3540024518805</v>
       </c>
       <c r="D284">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5564,13 +5564,13 @@
         <v>286</v>
       </c>
       <c r="B285">
-        <v>126.6387551242765</v>
+        <v>126.659063612562</v>
       </c>
       <c r="C285">
-        <v>33.48206819907232</v>
+        <v>33.4482182362494</v>
       </c>
       <c r="D285">
-        <v>32</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5578,13 +5578,13 @@
         <v>287</v>
       </c>
       <c r="B286">
-        <v>126.4581744668348</v>
+        <v>126.6387551242765</v>
       </c>
       <c r="C286">
-        <v>33.49810414027896</v>
+        <v>33.48206819907232</v>
       </c>
       <c r="D286">
-        <v>1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5592,13 +5592,13 @@
         <v>288</v>
       </c>
       <c r="B287">
-        <v>126.603077355739</v>
+        <v>126.4581744668348</v>
       </c>
       <c r="C287">
-        <v>33.4272534414335</v>
+        <v>33.49810414027896</v>
       </c>
       <c r="D287">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5606,13 +5606,13 @@
         <v>289</v>
       </c>
       <c r="B288">
-        <v>126.5209807173617</v>
+        <v>126.603077355739</v>
       </c>
       <c r="C288">
-        <v>33.51346812244261</v>
+        <v>33.4272534414335</v>
       </c>
       <c r="D288">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5620,13 +5620,13 @@
         <v>290</v>
       </c>
       <c r="B289">
-        <v>126.3768663613776</v>
+        <v>126.5209807173617</v>
       </c>
       <c r="C289">
-        <v>33.38901521664319</v>
+        <v>33.51346812244261</v>
       </c>
       <c r="D289">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5634,13 +5634,13 @@
         <v>291</v>
       </c>
       <c r="B290">
-        <v>126.564210592468</v>
+        <v>126.3768663613776</v>
       </c>
       <c r="C290">
-        <v>33.4802669385292</v>
+        <v>33.38901521664319</v>
       </c>
       <c r="D290">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5648,10 +5648,10 @@
         <v>292</v>
       </c>
       <c r="B291">
-        <v>126.423392263624</v>
+        <v>126.564210592468</v>
       </c>
       <c r="C291">
-        <v>33.2508642441858</v>
+        <v>33.4802669385292</v>
       </c>
       <c r="D291">
         <v>1</v>
@@ -5662,13 +5662,13 @@
         <v>293</v>
       </c>
       <c r="B292">
-        <v>126.514881483083</v>
+        <v>126.423392263624</v>
       </c>
       <c r="C292">
-        <v>33.4997275863395</v>
+        <v>33.2508642441858</v>
       </c>
       <c r="D292">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5676,13 +5676,13 @@
         <v>294</v>
       </c>
       <c r="B293">
-        <v>126.531171087129</v>
+        <v>126.514881483083</v>
       </c>
       <c r="C293">
-        <v>33.49953424126981</v>
+        <v>33.4997275863395</v>
       </c>
       <c r="D293">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -5690,13 +5690,13 @@
         <v>295</v>
       </c>
       <c r="B294">
-        <v>126.4080414112456</v>
+        <v>126.531171087129</v>
       </c>
       <c r="C294">
-        <v>33.24743087763671</v>
+        <v>33.49953424126981</v>
       </c>
       <c r="D294">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -5704,13 +5704,13 @@
         <v>296</v>
       </c>
       <c r="B295">
-        <v>126.539409663514</v>
+        <v>126.4080414112456</v>
       </c>
       <c r="C295">
-        <v>33.2566099433115</v>
+        <v>33.24743087763671</v>
       </c>
       <c r="D295">
-        <v>48</v>
+        <v>5</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -5718,13 +5718,13 @@
         <v>297</v>
       </c>
       <c r="B296">
-        <v>126.5210353908047</v>
+        <v>126.539409663514</v>
       </c>
       <c r="C296">
-        <v>33.5172189473366</v>
+        <v>33.2566099433115</v>
       </c>
       <c r="D296">
-        <v>1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -5732,10 +5732,10 @@
         <v>298</v>
       </c>
       <c r="B297">
-        <v>126.4993691669833</v>
+        <v>126.5210353908047</v>
       </c>
       <c r="C297">
-        <v>33.48620781859513</v>
+        <v>33.5172189473366</v>
       </c>
       <c r="D297">
         <v>1</v>
@@ -5746,10 +5746,10 @@
         <v>299</v>
       </c>
       <c r="B298">
-        <v>126.250424910528</v>
+        <v>126.4993691669833</v>
       </c>
       <c r="C298">
-        <v>33.2182882015203</v>
+        <v>33.48620781859513</v>
       </c>
       <c r="D298">
         <v>1</v>
@@ -5760,10 +5760,10 @@
         <v>300</v>
       </c>
       <c r="B299">
-        <v>126.6767734457838</v>
+        <v>126.250424910528</v>
       </c>
       <c r="C299">
-        <v>33.4939083226086</v>
+        <v>33.2182882015203</v>
       </c>
       <c r="D299">
         <v>1</v>
@@ -5774,10 +5774,10 @@
         <v>301</v>
       </c>
       <c r="B300">
-        <v>126.309948273867</v>
+        <v>126.6767734457838</v>
       </c>
       <c r="C300">
-        <v>33.4456741591374</v>
+        <v>33.4939083226086</v>
       </c>
       <c r="D300">
         <v>1</v>
@@ -5788,10 +5788,10 @@
         <v>302</v>
       </c>
       <c r="B301">
-        <v>126.420734158755</v>
+        <v>126.309948273867</v>
       </c>
       <c r="C301">
-        <v>33.2458352639585</v>
+        <v>33.4456741591374</v>
       </c>
       <c r="D301">
         <v>1</v>
@@ -5802,10 +5802,10 @@
         <v>303</v>
       </c>
       <c r="B302">
-        <v>129.351772292934</v>
+        <v>126.420734158755</v>
       </c>
       <c r="C302">
-        <v>35.54129095420171</v>
+        <v>33.2458352639585</v>
       </c>
       <c r="D302">
         <v>1</v>
@@ -5816,13 +5816,13 @@
         <v>304</v>
       </c>
       <c r="B303">
-        <v>126.265945851317</v>
+        <v>129.351772292934</v>
       </c>
       <c r="C303">
-        <v>33.4353237429241</v>
+        <v>35.54129095420171</v>
       </c>
       <c r="D303">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -5830,13 +5830,13 @@
         <v>305</v>
       </c>
       <c r="B304">
-        <v>126.815131804034</v>
+        <v>126.265945851317</v>
       </c>
       <c r="C304">
-        <v>33.329683325375</v>
+        <v>33.4353237429241</v>
       </c>
       <c r="D304">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -5844,13 +5844,13 @@
         <v>306</v>
       </c>
       <c r="B305">
-        <v>126.308502721338</v>
+        <v>126.815131804034</v>
       </c>
       <c r="C305">
-        <v>33.2292960867193</v>
+        <v>33.329683325375</v>
       </c>
       <c r="D305">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -5858,10 +5858,10 @@
         <v>307</v>
       </c>
       <c r="B306">
-        <v>126.935021279897</v>
+        <v>126.308502721338</v>
       </c>
       <c r="C306">
-        <v>33.4652487223676</v>
+        <v>33.2292960867193</v>
       </c>
       <c r="D306">
         <v>1</v>
@@ -5872,10 +5872,10 @@
         <v>308</v>
       </c>
       <c r="B307">
-        <v>126.425455882206</v>
+        <v>126.935021279897</v>
       </c>
       <c r="C307">
-        <v>33.2562618883391</v>
+        <v>33.4652487223676</v>
       </c>
       <c r="D307">
         <v>1</v>
@@ -5886,10 +5886,10 @@
         <v>309</v>
       </c>
       <c r="B308">
-        <v>127.893556606698</v>
+        <v>126.425455882206</v>
       </c>
       <c r="C308">
-        <v>34.7285363368474</v>
+        <v>33.2562618883391</v>
       </c>
       <c r="D308">
         <v>1</v>
@@ -5900,13 +5900,13 @@
         <v>310</v>
       </c>
       <c r="B309">
-        <v>126.837498029285</v>
+        <v>127.893556606698</v>
       </c>
       <c r="C309">
-        <v>33.5328407905861</v>
+        <v>34.7285363368474</v>
       </c>
       <c r="D309">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -5914,10 +5914,10 @@
         <v>311</v>
       </c>
       <c r="B310">
-        <v>127.0513877566037</v>
+        <v>126.837498029285</v>
       </c>
       <c r="C310">
-        <v>37.22163154658148</v>
+        <v>33.5328407905861</v>
       </c>
       <c r="D310">
         <v>2</v>
@@ -5928,10 +5928,10 @@
         <v>312</v>
       </c>
       <c r="B311">
-        <v>126.567090217045</v>
+        <v>127.0513877566037</v>
       </c>
       <c r="C311">
-        <v>33.2501815866952</v>
+        <v>37.22163154658148</v>
       </c>
       <c r="D311">
         <v>2</v>
@@ -5942,13 +5942,13 @@
         <v>313</v>
       </c>
       <c r="B312">
-        <v>126.706435919229</v>
+        <v>126.567090217045</v>
       </c>
       <c r="C312">
-        <v>33.5100992264384</v>
+        <v>33.2501815866952</v>
       </c>
       <c r="D312">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -5956,10 +5956,10 @@
         <v>314</v>
       </c>
       <c r="B313">
-        <v>126.147625156169</v>
+        <v>126.706435919229</v>
       </c>
       <c r="C313">
-        <v>33.3115549586682</v>
+        <v>33.5100992264384</v>
       </c>
       <c r="D313">
         <v>1</v>
@@ -5970,10 +5970,10 @@
         <v>315</v>
       </c>
       <c r="B314">
-        <v>126.7233491683238</v>
+        <v>126.147625156169</v>
       </c>
       <c r="C314">
-        <v>37.48956928434696</v>
+        <v>33.3115549586682</v>
       </c>
       <c r="D314">
         <v>1</v>
@@ -5984,10 +5984,10 @@
         <v>316</v>
       </c>
       <c r="B315">
-        <v>126.4750173631298</v>
+        <v>126.7233491683238</v>
       </c>
       <c r="C315">
-        <v>33.47858507053319</v>
+        <v>37.48956928434696</v>
       </c>
       <c r="D315">
         <v>1</v>
@@ -5998,10 +5998,10 @@
         <v>317</v>
       </c>
       <c r="B316">
-        <v>126.793895486737</v>
+        <v>126.4750173631298</v>
       </c>
       <c r="C316">
-        <v>33.5570468562326</v>
+        <v>33.47858507053319</v>
       </c>
       <c r="D316">
         <v>1</v>
@@ -6012,10 +6012,10 @@
         <v>318</v>
       </c>
       <c r="B317">
-        <v>126.8867209774135</v>
+        <v>126.793895486737</v>
       </c>
       <c r="C317">
-        <v>33.44607191099333</v>
+        <v>33.5570468562326</v>
       </c>
       <c r="D317">
         <v>1</v>
@@ -6026,13 +6026,13 @@
         <v>319</v>
       </c>
       <c r="B318">
-        <v>126.4183754156168</v>
+        <v>126.8867209774135</v>
       </c>
       <c r="C318">
-        <v>33.25267658457861</v>
+        <v>33.44607191099333</v>
       </c>
       <c r="D318">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -6040,10 +6040,10 @@
         <v>320</v>
       </c>
       <c r="B319">
-        <v>126.554524507224</v>
+        <v>126.4183754156168</v>
       </c>
       <c r="C319">
-        <v>33.2472087173195</v>
+        <v>33.25267658457861</v>
       </c>
       <c r="D319">
         <v>4</v>
@@ -6054,13 +6054,13 @@
         <v>321</v>
       </c>
       <c r="B320">
-        <v>126.3768945058272</v>
+        <v>126.554524507224</v>
       </c>
       <c r="C320">
-        <v>34.79217506987312</v>
+        <v>33.2472087173195</v>
       </c>
       <c r="D320">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -6068,13 +6068,13 @@
         <v>322</v>
       </c>
       <c r="B321">
-        <v>126.338913773455</v>
+        <v>126.3768945058272</v>
       </c>
       <c r="C321">
-        <v>33.2482331036319</v>
+        <v>34.79217506987312</v>
       </c>
       <c r="D321">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -6082,13 +6082,13 @@
         <v>323</v>
       </c>
       <c r="B322">
-        <v>126.370550844059</v>
+        <v>126.338913773455</v>
       </c>
       <c r="C322">
-        <v>33.2644640824624</v>
+        <v>33.2482331036319</v>
       </c>
       <c r="D322">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -6096,13 +6096,13 @@
         <v>324</v>
       </c>
       <c r="B323">
-        <v>126.786425294018</v>
+        <v>126.370550844059</v>
       </c>
       <c r="C323">
-        <v>33.471605804555</v>
+        <v>33.2644640824624</v>
       </c>
       <c r="D323">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -6110,13 +6110,13 @@
         <v>325</v>
       </c>
       <c r="B324">
-        <v>126.5107172444251</v>
+        <v>126.786425294018</v>
       </c>
       <c r="C324">
-        <v>33.50232582709983</v>
+        <v>33.471605804555</v>
       </c>
       <c r="D324">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -6124,13 +6124,13 @@
         <v>326</v>
       </c>
       <c r="B325">
-        <v>126.416431021874</v>
+        <v>126.5107172444251</v>
       </c>
       <c r="C325">
-        <v>33.2558952800407</v>
+        <v>33.50232582709983</v>
       </c>
       <c r="D325">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -6138,10 +6138,10 @@
         <v>327</v>
       </c>
       <c r="B326">
-        <v>126.2559416233881</v>
+        <v>126.416431021874</v>
       </c>
       <c r="C326">
-        <v>33.39339443746601</v>
+        <v>33.2558952800407</v>
       </c>
       <c r="D326">
         <v>1</v>
@@ -6152,13 +6152,13 @@
         <v>328</v>
       </c>
       <c r="B327">
-        <v>126.366642899065</v>
+        <v>126.2559416233881</v>
       </c>
       <c r="C327">
-        <v>33.2354950659364</v>
+        <v>33.39339443746601</v>
       </c>
       <c r="D327">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -6166,13 +6166,13 @@
         <v>329</v>
       </c>
       <c r="B328">
-        <v>126.451043227687</v>
+        <v>126.366642899065</v>
       </c>
       <c r="C328">
-        <v>33.4944880347689</v>
+        <v>33.2354950659364</v>
       </c>
       <c r="D328">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -6180,13 +6180,13 @@
         <v>330</v>
       </c>
       <c r="B329">
-        <v>126.291325094937</v>
+        <v>126.451043227687</v>
       </c>
       <c r="C329">
-        <v>33.21038626942035</v>
+        <v>33.4944880347689</v>
       </c>
       <c r="D329">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -6194,13 +6194,13 @@
         <v>331</v>
       </c>
       <c r="B330">
-        <v>126.415641965974</v>
+        <v>126.291325094937</v>
       </c>
       <c r="C330">
-        <v>33.4583455161868</v>
+        <v>33.21038626942035</v>
       </c>
       <c r="D330">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6208,13 +6208,13 @@
         <v>332</v>
       </c>
       <c r="B331">
-        <v>126.376070692854</v>
+        <v>126.415641965974</v>
       </c>
       <c r="C331">
-        <v>33.482520797113</v>
+        <v>33.4583455161868</v>
       </c>
       <c r="D331">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -6222,10 +6222,10 @@
         <v>333</v>
       </c>
       <c r="B332">
-        <v>126.5201966784542</v>
+        <v>126.376070692854</v>
       </c>
       <c r="C332">
-        <v>33.51511499773063</v>
+        <v>33.482520797113</v>
       </c>
       <c r="D332">
         <v>1</v>
@@ -6236,10 +6236,10 @@
         <v>334</v>
       </c>
       <c r="B333">
-        <v>126.3459963840855</v>
+        <v>126.5201966784542</v>
       </c>
       <c r="C333">
-        <v>33.45074080777962</v>
+        <v>33.51511499773063</v>
       </c>
       <c r="D333">
         <v>1</v>
@@ -6250,10 +6250,10 @@
         <v>335</v>
       </c>
       <c r="B334">
-        <v>126.842253887549</v>
+        <v>126.3459963840855</v>
       </c>
       <c r="C334">
-        <v>33.5318912452691</v>
+        <v>33.45074080777962</v>
       </c>
       <c r="D334">
         <v>1</v>
@@ -6264,10 +6264,10 @@
         <v>336</v>
       </c>
       <c r="B335">
-        <v>126.297366137311</v>
+        <v>126.842253887549</v>
       </c>
       <c r="C335">
-        <v>33.3569048939854</v>
+        <v>33.5318912452691</v>
       </c>
       <c r="D335">
         <v>1</v>
@@ -6278,13 +6278,13 @@
         <v>337</v>
       </c>
       <c r="B336">
-        <v>126.863025453023</v>
+        <v>126.297366137311</v>
       </c>
       <c r="C336">
-        <v>33.52478250671836</v>
+        <v>33.3569048939854</v>
       </c>
       <c r="D336">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -6292,13 +6292,13 @@
         <v>338</v>
       </c>
       <c r="B337">
-        <v>126.707750215953</v>
+        <v>126.863025453023</v>
       </c>
       <c r="C337">
-        <v>33.4712938141156</v>
+        <v>33.52478250671836</v>
       </c>
       <c r="D337">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -6306,13 +6306,13 @@
         <v>339</v>
       </c>
       <c r="B338">
-        <v>126.261304724338</v>
+        <v>126.707750215953</v>
       </c>
       <c r="C338">
-        <v>33.2271241774015</v>
+        <v>33.4712938141156</v>
       </c>
       <c r="D338">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6320,13 +6320,13 @@
         <v>340</v>
       </c>
       <c r="B339">
-        <v>126.9732294357705</v>
+        <v>126.261304724338</v>
       </c>
       <c r="C339">
-        <v>37.4016601290172</v>
+        <v>33.2271241774015</v>
       </c>
       <c r="D339">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6334,13 +6334,13 @@
         <v>341</v>
       </c>
       <c r="B340">
-        <v>126.528857217565</v>
+        <v>126.9732294357705</v>
       </c>
       <c r="C340">
-        <v>33.4983714260312</v>
+        <v>37.4016601290172</v>
       </c>
       <c r="D340">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6348,13 +6348,13 @@
         <v>342</v>
       </c>
       <c r="B341">
-        <v>126.540569160151</v>
+        <v>126.528857217565</v>
       </c>
       <c r="C341">
-        <v>33.4740434900743</v>
+        <v>33.4983714260312</v>
       </c>
       <c r="D341">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6362,10 +6362,10 @@
         <v>343</v>
       </c>
       <c r="B342">
-        <v>126.9125690458407</v>
+        <v>126.540569160151</v>
       </c>
       <c r="C342">
-        <v>33.44437796330059</v>
+        <v>33.4740434900743</v>
       </c>
       <c r="D342">
         <v>1</v>
@@ -6376,13 +6376,13 @@
         <v>344</v>
       </c>
       <c r="B343">
-        <v>126.527675697577</v>
+        <v>126.9125690458407</v>
       </c>
       <c r="C343">
-        <v>33.47377864639875</v>
+        <v>33.44437796330059</v>
       </c>
       <c r="D343">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -6390,13 +6390,13 @@
         <v>345</v>
       </c>
       <c r="B344">
-        <v>126.272412555086</v>
+        <v>126.527675697577</v>
       </c>
       <c r="C344">
-        <v>33.3137945562986</v>
+        <v>33.47377864639875</v>
       </c>
       <c r="D344">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -6404,13 +6404,13 @@
         <v>346</v>
       </c>
       <c r="B345">
-        <v>126.528385695868</v>
+        <v>126.272412555086</v>
       </c>
       <c r="C345">
-        <v>33.5162608104236</v>
+        <v>33.3137945562986</v>
       </c>
       <c r="D345">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -6418,10 +6418,10 @@
         <v>347</v>
       </c>
       <c r="B346">
-        <v>126.5021135648889</v>
+        <v>126.528385695868</v>
       </c>
       <c r="C346">
-        <v>33.48120421237265</v>
+        <v>33.5162608104236</v>
       </c>
       <c r="D346">
         <v>1</v>
@@ -6432,10 +6432,10 @@
         <v>348</v>
       </c>
       <c r="B347">
-        <v>126.687829830714</v>
+        <v>126.5021135648889</v>
       </c>
       <c r="C347">
-        <v>33.2753778557836</v>
+        <v>33.48120421237265</v>
       </c>
       <c r="D347">
         <v>1</v>
@@ -6446,13 +6446,13 @@
         <v>349</v>
       </c>
       <c r="B348">
-        <v>126.327959363756</v>
+        <v>126.687829830714</v>
       </c>
       <c r="C348">
-        <v>33.3469077943428</v>
+        <v>33.2753778557836</v>
       </c>
       <c r="D348">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -6460,10 +6460,10 @@
         <v>350</v>
       </c>
       <c r="B349">
-        <v>126.898814982248</v>
+        <v>126.327959363756</v>
       </c>
       <c r="C349">
-        <v>33.52192638345875</v>
+        <v>33.3469077943428</v>
       </c>
       <c r="D349">
         <v>2</v>
@@ -6474,10 +6474,10 @@
         <v>351</v>
       </c>
       <c r="B350">
-        <v>126.4844089903453</v>
+        <v>126.898814982248</v>
       </c>
       <c r="C350">
-        <v>33.26562309357885</v>
+        <v>33.52192638345875</v>
       </c>
       <c r="D350">
         <v>2</v>
@@ -6488,13 +6488,13 @@
         <v>352</v>
       </c>
       <c r="B351">
-        <v>126.3107677685966</v>
+        <v>126.4844089903453</v>
       </c>
       <c r="C351">
-        <v>33.46198929730686</v>
+        <v>33.26562309357885</v>
       </c>
       <c r="D351">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -6502,13 +6502,13 @@
         <v>353</v>
       </c>
       <c r="B352">
-        <v>126.200023263531</v>
+        <v>126.3107677685966</v>
       </c>
       <c r="C352">
-        <v>33.365021627537</v>
+        <v>33.46198929730686</v>
       </c>
       <c r="D352">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -6516,13 +6516,13 @@
         <v>354</v>
       </c>
       <c r="B353">
-        <v>126.52787983828</v>
+        <v>126.200023263531</v>
       </c>
       <c r="C353">
-        <v>33.5166519767225</v>
+        <v>33.365021627537</v>
       </c>
       <c r="D353">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -6530,13 +6530,13 @@
         <v>355</v>
       </c>
       <c r="B354">
-        <v>126.837174490473</v>
+        <v>126.52787983828</v>
       </c>
       <c r="C354">
-        <v>33.5377378451064</v>
+        <v>33.5166519767225</v>
       </c>
       <c r="D354">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -6544,13 +6544,13 @@
         <v>356</v>
       </c>
       <c r="B355">
-        <v>126.477634800654</v>
+        <v>126.837174490473</v>
       </c>
       <c r="C355">
-        <v>33.4773609473677</v>
+        <v>33.5377378451064</v>
       </c>
       <c r="D355">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6558,10 +6558,10 @@
         <v>357</v>
       </c>
       <c r="B356">
-        <v>126.859064792096</v>
+        <v>126.477634800654</v>
       </c>
       <c r="C356">
-        <v>33.5136991960307</v>
+        <v>33.4773609473677</v>
       </c>
       <c r="D356">
         <v>1</v>
@@ -6572,10 +6572,10 @@
         <v>358</v>
       </c>
       <c r="B357">
-        <v>126.900660269856</v>
+        <v>126.859064792096</v>
       </c>
       <c r="C357">
-        <v>33.4896558980102</v>
+        <v>33.5136991960307</v>
       </c>
       <c r="D357">
         <v>1</v>
@@ -6586,10 +6586,10 @@
         <v>359</v>
       </c>
       <c r="B358">
-        <v>126.3553565210792</v>
+        <v>126.900660269856</v>
       </c>
       <c r="C358">
-        <v>33.28190640701936</v>
+        <v>33.4896558980102</v>
       </c>
       <c r="D358">
         <v>1</v>
@@ -6600,13 +6600,13 @@
         <v>360</v>
       </c>
       <c r="B359">
-        <v>126.429191724439</v>
+        <v>126.3553565210792</v>
       </c>
       <c r="C359">
-        <v>33.4844249480885</v>
+        <v>33.28190640701936</v>
       </c>
       <c r="D359">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -6614,13 +6614,13 @@
         <v>361</v>
       </c>
       <c r="B360">
-        <v>126.5435712917985</v>
+        <v>126.429191724439</v>
       </c>
       <c r="C360">
-        <v>33.50962247734513</v>
+        <v>33.4844249480885</v>
       </c>
       <c r="D360">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -6628,10 +6628,10 @@
         <v>362</v>
       </c>
       <c r="B361">
-        <v>126.246069769825</v>
+        <v>126.5435712917985</v>
       </c>
       <c r="C361">
-        <v>33.3994584436266</v>
+        <v>33.50962247734513</v>
       </c>
       <c r="D361">
         <v>1</v>
@@ -6642,13 +6642,13 @@
         <v>363</v>
       </c>
       <c r="B362">
-        <v>126.800922820428</v>
+        <v>126.246069769825</v>
       </c>
       <c r="C362">
-        <v>33.315123515115</v>
+        <v>33.3994584436266</v>
       </c>
       <c r="D362">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -6656,13 +6656,13 @@
         <v>364</v>
       </c>
       <c r="B363">
-        <v>126.888046179103</v>
+        <v>126.800922820428</v>
       </c>
       <c r="C363">
-        <v>33.50866357630661</v>
+        <v>33.315123515115</v>
       </c>
       <c r="D363">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -6670,13 +6670,13 @@
         <v>365</v>
       </c>
       <c r="B364">
-        <v>126.8834213562309</v>
+        <v>126.888046179103</v>
       </c>
       <c r="C364">
-        <v>33.52236906195016</v>
+        <v>33.50866357630661</v>
       </c>
       <c r="D364">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -6684,13 +6684,13 @@
         <v>366</v>
       </c>
       <c r="B365">
-        <v>126.899230006514</v>
+        <v>126.8834213562309</v>
       </c>
       <c r="C365">
-        <v>33.51305676804211</v>
+        <v>33.52236906195016</v>
       </c>
       <c r="D365">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -6698,13 +6698,13 @@
         <v>367</v>
       </c>
       <c r="B366">
-        <v>126.638270003266</v>
+        <v>126.899230006514</v>
       </c>
       <c r="C366">
-        <v>33.2616216923515</v>
+        <v>33.51305676804211</v>
       </c>
       <c r="D366">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -6712,13 +6712,13 @@
         <v>368</v>
       </c>
       <c r="B367">
-        <v>128.506689096805</v>
+        <v>126.638270003266</v>
       </c>
       <c r="C367">
-        <v>35.8544510637274</v>
+        <v>33.2616216923515</v>
       </c>
       <c r="D367">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -6726,13 +6726,13 @@
         <v>369</v>
       </c>
       <c r="B368">
-        <v>126.310468326159</v>
+        <v>128.506689096805</v>
       </c>
       <c r="C368">
-        <v>33.4593234504188</v>
+        <v>35.8544510637274</v>
       </c>
       <c r="D368">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -6740,10 +6740,10 @@
         <v>370</v>
       </c>
       <c r="B369">
-        <v>126.821128390044</v>
+        <v>126.310468326159</v>
       </c>
       <c r="C369">
-        <v>33.5356456402083</v>
+        <v>33.4593234504188</v>
       </c>
       <c r="D369">
         <v>2</v>
@@ -6754,13 +6754,13 @@
         <v>371</v>
       </c>
       <c r="B370">
-        <v>126.534306719271</v>
+        <v>126.821128390044</v>
       </c>
       <c r="C370">
-        <v>33.35904026836489</v>
+        <v>33.5356456402083</v>
       </c>
       <c r="D370">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -6768,13 +6768,13 @@
         <v>372</v>
       </c>
       <c r="B371">
-        <v>126.45932954628</v>
+        <v>126.534306719271</v>
       </c>
       <c r="C371">
-        <v>33.3320090628383</v>
+        <v>33.35904026836489</v>
       </c>
       <c r="D371">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -6782,10 +6782,10 @@
         <v>373</v>
       </c>
       <c r="B372">
-        <v>126.597699641656</v>
+        <v>126.45932954628</v>
       </c>
       <c r="C372">
-        <v>33.4312933427524</v>
+        <v>33.3320090628383</v>
       </c>
       <c r="D372">
         <v>1</v>
@@ -6796,13 +6796,13 @@
         <v>374</v>
       </c>
       <c r="B373">
-        <v>126.493266082832</v>
+        <v>126.597699641656</v>
       </c>
       <c r="C373">
-        <v>33.4697839260314</v>
+        <v>33.4312933427524</v>
       </c>
       <c r="D373">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -6810,13 +6810,13 @@
         <v>375</v>
       </c>
       <c r="B374">
-        <v>126.261506447291</v>
+        <v>126.493266082832</v>
       </c>
       <c r="C374">
-        <v>33.41556708794511</v>
+        <v>33.4697839260314</v>
       </c>
       <c r="D374">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -6824,10 +6824,10 @@
         <v>376</v>
       </c>
       <c r="B375">
-        <v>126.255828967781</v>
+        <v>126.261506447291</v>
       </c>
       <c r="C375">
-        <v>33.4146784560727</v>
+        <v>33.41556708794511</v>
       </c>
       <c r="D375">
         <v>2</v>
@@ -6838,13 +6838,13 @@
         <v>377</v>
       </c>
       <c r="B376">
-        <v>126.973098147371</v>
+        <v>126.255828967781</v>
       </c>
       <c r="C376">
-        <v>37.563260528947</v>
+        <v>33.4146784560727</v>
       </c>
       <c r="D376">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -6852,13 +6852,13 @@
         <v>378</v>
       </c>
       <c r="B377">
-        <v>127.020825988861</v>
+        <v>126.973098147371</v>
       </c>
       <c r="C377">
-        <v>37.5182108620338</v>
+        <v>37.563260528947</v>
       </c>
       <c r="D377">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -6866,13 +6866,13 @@
         <v>379</v>
       </c>
       <c r="B378">
-        <v>126.662218166527</v>
+        <v>127.020825988861</v>
       </c>
       <c r="C378">
-        <v>33.5432517829153</v>
+        <v>37.5182108620338</v>
       </c>
       <c r="D378">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -6880,13 +6880,13 @@
         <v>380</v>
       </c>
       <c r="B379">
-        <v>126.407922584204</v>
+        <v>126.662218166527</v>
       </c>
       <c r="C379">
-        <v>33.4527478729655</v>
+        <v>33.5432517829153</v>
       </c>
       <c r="D379">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -6894,10 +6894,10 @@
         <v>381</v>
       </c>
       <c r="B380">
-        <v>126.917914464088</v>
+        <v>126.407922584204</v>
       </c>
       <c r="C380">
-        <v>33.4360696488209</v>
+        <v>33.4527478729655</v>
       </c>
       <c r="D380">
         <v>1</v>
@@ -6908,10 +6908,10 @@
         <v>382</v>
       </c>
       <c r="B381">
-        <v>126.426527337765</v>
+        <v>126.917914464088</v>
       </c>
       <c r="C381">
-        <v>33.2519210158987</v>
+        <v>33.4360696488209</v>
       </c>
       <c r="D381">
         <v>1</v>
@@ -6922,13 +6922,13 @@
         <v>383</v>
       </c>
       <c r="B382">
-        <v>126.917189510552</v>
+        <v>126.426527337765</v>
       </c>
       <c r="C382">
-        <v>33.4384927031139</v>
+        <v>33.2519210158987</v>
       </c>
       <c r="D382">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -6936,13 +6936,13 @@
         <v>384</v>
       </c>
       <c r="B383">
-        <v>126.2242204545456</v>
+        <v>126.917189510552</v>
       </c>
       <c r="C383">
-        <v>33.28256546232073</v>
+        <v>33.4384927031139</v>
       </c>
       <c r="D383">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -7034,10 +7034,10 @@
         <v>391</v>
       </c>
       <c r="B390">
-        <v>126.303445583909</v>
+        <v>127.004821528056</v>
       </c>
       <c r="C390">
-        <v>36.7469130811872</v>
+        <v>36.7809953864634</v>
       </c>
       <c r="D390">
         <v>1</v>
